--- a/data/example_excel.xlsx
+++ b/data/example_excel.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="iCod_summary" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Nobob" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="iCod_landings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Nobob!$A$1:$D$28</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Nobob!$A$1:$D$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">Nobob!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -133,6 +135,15 @@
   </si>
   <si>
     <t>See: www.greatlakeslessons.com</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -350,10 +361,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,6 +465,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -537,18 +548,19 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.88775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.89285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.88775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,380 +2044,345 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="26.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="18.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.01530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <v>98</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <v>465</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="17" t="n">
         <v>19.5</v>
       </c>
-      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="16" t="n">
         <v>178.5</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="16" t="n">
         <v>15.5</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="16" t="n">
         <v>9955.5</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="16" t="n">
         <v>24.33</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="16" t="n">
         <v>90.83</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="17" t="n">
         <v>0.25</v>
       </c>
-      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="16" t="n">
         <v>35.25</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="19" t="n">
         <v>25.25</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="19" t="n">
         <v>55.16</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="20" t="n">
         <v>1.25</v>
       </c>
-      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="0"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="0"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="16" t="n">
         <v>8.21</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="17" t="n">
         <v>6.62</v>
       </c>
-      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="16" t="n">
         <v>1.08</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="17" t="n">
         <v>0.1</v>
       </c>
-      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>4.25</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="16" t="n">
         <v>2.06</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="17" t="n">
         <v>0.26</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="16" t="n">
         <v>0.12</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>32.15</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="16" t="n">
         <v>0.11</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="16" t="n">
         <v>27.75</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="16" t="n">
         <v>0.44</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="17" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="n">
+      <c r="B24" s="19" t="n">
         <v>28.75</v>
       </c>
-      <c r="C24" s="20" t="n">
+      <c r="C24" s="19" t="n">
         <v>0.04</v>
       </c>
-      <c r="D24" s="21" t="n">
+      <c r="D24" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
       <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2425,4 +2402,1601 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D113"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.67857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>44775</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>47355</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>92130</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>48302</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>58441</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>106743</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>53868</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>62838</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>116706</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>58259</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>66704</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>124963</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>56670</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>58831</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>115501</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>71007</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>62595</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>133602</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>75114</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>77762</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>152876</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>75499</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>79477</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>154976</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>79870</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>95110</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>174980</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>53473</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>135025</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>188498</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>66030</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>70069</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>136099</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>68848</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>112823</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>61413</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>23305</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>84718</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>62093</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>41073</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>103156</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>76766</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>79967</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>156733</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>82766</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>127972</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>210738</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>90632</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>128735</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>219367</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>103436</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>175568</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>279004</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>127320</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>116328</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>243648</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>161797</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>158004</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>319801</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>166538</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>165698</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>332236</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>126890</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>174304</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>301194</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>164783</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>178295</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>343078</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>177328</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>186943</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>364271</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>201074</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>197738</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>398812</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>261278</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>237157</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>498435</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>224504</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>258898</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>483402</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>208081</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>277207</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>485288</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>247329</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>270946</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>518275</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>223729</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>214840</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>438569</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>182926</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>218965</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>401891</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>102354</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>181232</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>283586</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>111285</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>186531</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>297816</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>131965</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>179351</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>311316</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>136782</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>61569</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>198351</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>147347</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>147347</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>156242</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>156242</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>173146</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>173146</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>186017</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>186017</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>216677</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>216677</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>211849</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>4098</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>215947</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>199165</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>38772</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>237937</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>200242</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>45955</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>246197</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>213177</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>80157</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>293334</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>221419</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>93135</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>314554</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>197433</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>152922</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>350355</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>183252</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>165230</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>348482</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>237314</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>162629</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>399943</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>263516</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>262545</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>526061</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>306191</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>241339</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>547530</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>315438</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>222692</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>538130</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>292586</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>188123</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>480709</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>247087</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>204822</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>451909</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>284407</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>224276</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>508683</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>284259</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>168245</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>452504</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>295668</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>169355</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>465023</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>233874</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>141042</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>374916</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>221820</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>165056</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>386876</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>232839</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>177211</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>410050</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>273584</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>160021</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>433605</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>233483</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>160153</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>393636</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>223974</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>132781</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>356755</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>193449</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>151573</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>345022</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>227594</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>153476</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>381070</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>281680</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>124731</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>406411</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>302875</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>167882</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>470757</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>250324</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>202728</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>453052</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>225354</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>173174</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>398528</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>238898</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>144548</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>383446</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>238066</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>136704</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>374770</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>264975</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>106016</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>370991</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>280831</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>67018</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>347849</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>329676</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>10374</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>340050</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>319648</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>10742</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>330390</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>360080</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>7984</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>368064</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>428344</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>434344</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>460579</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>8080</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>468659</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>382297</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>6090</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>388387</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>293890</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>6166</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>300056</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>281481</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2341</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>283822</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>322810</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2457</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>325267</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>365852</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2781</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>368633</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>389808</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2445</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>392257</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>375741</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2335</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>378076</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>353630</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2324</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>355954</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>333348</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2042</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>335390</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>306689</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>308560</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>266662</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>267767</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>251170</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>809</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>251979</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>177919</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>890</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>178809</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>168685</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>739</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>169424</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>181052</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>606</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>181658</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>202745</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>203153</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>241545</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>242632</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>258658</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1394</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>260052</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>234362</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1325</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>235687</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>234085</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1289</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>235374</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>207466</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1311</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>208777</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>200443</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>7108</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>207551</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>220057</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>7532</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>227589</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>207972</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>5612</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>213584</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>193413</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2863</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>196276</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>166912</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>3710</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>170622</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>143785</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2794</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>146579</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>181309</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>182421</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>167632</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1521</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>169153</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>169638</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2062</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>171700</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>193846</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>195826</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>221569</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>223274</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>219682</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>221343</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>228368</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1863</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>230231</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>248393</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>2739</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>251132</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/example_excel.xlsx
+++ b/data/example_excel.xlsx
@@ -5,17 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="iCod_summary" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Nobob" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="iCod_landings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Nobob!$A$1:$D$28</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Nobob!$A$1:$D$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">Nobob!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -135,15 +133,6 @@
   </si>
   <si>
     <t>See: www.greatlakeslessons.com</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -361,6 +350,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,10 +456,6 @@
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -548,19 +537,18 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.88775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.89285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="4.88775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,345 +2032,380 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="26.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="18.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.01530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
       <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="17" t="n">
         <v>98</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="18" t="n">
         <v>11</v>
       </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="17" t="n">
         <v>465</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="18" t="n">
         <v>19.5</v>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="17" t="n">
         <v>178.5</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="18" t="n">
         <v>2</v>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="17" t="n">
         <v>15.5</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="17" t="n">
         <v>9955.5</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="18" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="17" t="n">
         <v>24.33</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="17" t="n">
         <v>90.83</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="18" t="n">
         <v>0.25</v>
       </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="17" t="n">
         <v>35.25</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="18" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="20" t="n">
         <v>25.25</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="20" t="n">
         <v>55.16</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="21" t="n">
         <v>1.25</v>
       </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="17" t="n">
         <v>8.21</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="18" t="n">
         <v>6.62</v>
       </c>
+      <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="17" t="n">
         <v>1.08</v>
       </c>
-      <c r="D19" s="17" t="n">
+      <c r="D19" s="18" t="n">
         <v>0.1</v>
       </c>
+      <c r="E19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="17" t="n">
         <v>4.25</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="17" t="n">
         <v>2.06</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="18" t="n">
         <v>0.26</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="17" t="n">
         <v>0.12</v>
       </c>
-      <c r="D21" s="17" t="n">
+      <c r="D21" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="17" t="n">
         <v>32.15</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="17" t="n">
         <v>0.11</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="17" t="n">
         <v>27.75</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="18" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="n">
+      <c r="B24" s="20" t="n">
         <v>28.75</v>
       </c>
-      <c r="C24" s="19" t="n">
+      <c r="C24" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
       <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2402,1601 +2425,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D113"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.67857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1905</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>44775</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>47355</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>92130</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1906</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>48302</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>58441</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>106743</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>53868</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>62838</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>116706</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1908</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>58259</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>66704</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>124963</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1909</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>56670</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>58831</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>115501</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>71007</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>62595</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>133602</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1911</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>75114</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>77762</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>152876</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1912</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>75499</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>79477</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>154976</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1913</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>79870</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>95110</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>174980</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>1914</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>53473</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>135025</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>188498</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>66030</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>70069</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>136099</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1916</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>68848</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>43975</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>112823</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1917</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>61413</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>23305</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>84718</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1918</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>62093</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>41073</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>103156</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1919</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>76766</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>79967</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>156733</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1920</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>82766</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>127972</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>210738</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>1921</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>90632</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>128735</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>219367</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1922</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>103436</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>175568</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>279004</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1923</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>127320</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>116328</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>243648</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1924</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>161797</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>158004</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>319801</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>1925</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>166538</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>165698</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>332236</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1926</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>126890</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>174304</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>301194</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>164783</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>178295</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>343078</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>1928</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>177328</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>186943</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>364271</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>1929</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>201074</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>197738</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>398812</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>1930</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>261278</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>237157</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>498435</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>1931</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>224504</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>258898</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>483402</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>1932</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>208081</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>277207</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>485288</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>1933</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>247329</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>270946</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>518275</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1934</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>223729</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>214840</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>438569</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>1935</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>182926</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>218965</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>401891</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>1936</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>102354</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>181232</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>283586</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>1937</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>111285</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>186531</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>297816</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>131965</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>179351</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>311316</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>1939</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>136782</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>61569</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>198351</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>1940</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>147347</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>147347</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>1941</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>156242</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>156242</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>1942</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>173146</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>173146</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>1943</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>186017</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>186017</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>1944</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>216677</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>216677</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>1945</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>211849</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>4098</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>215947</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>1946</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>199165</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>38772</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>237937</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>1947</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>200242</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>45955</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>246197</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>213177</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>80157</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>293334</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>1949</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>221419</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>93135</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>314554</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>1950</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>197433</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>152922</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>350355</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>1951</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>183252</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>165230</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>348482</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>1952</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>237314</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>162629</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>399943</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>1953</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>263516</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>262545</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>526061</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>1954</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>306191</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>241339</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>547530</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>1955</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>315438</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>222692</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>538130</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>1956</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>292586</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>188123</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>480709</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>247087</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>204822</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>451909</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>1958</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>284407</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>224276</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>508683</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>1959</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>284259</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>168245</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>452504</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>1960</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>295668</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>169355</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>465023</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>1961</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>233874</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>141042</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>374916</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>1962</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>221820</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>165056</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>386876</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>1963</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>232839</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>177211</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>410050</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>1964</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>273584</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>160021</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>433605</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>1965</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>233483</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>160153</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>393636</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>223974</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>132781</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>356755</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>1967</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>193449</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>151573</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>345022</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>1968</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>227594</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>153476</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>381070</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>1969</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>281680</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>124731</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>406411</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>1970</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>302875</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>167882</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>470757</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>1971</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>250324</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>202728</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>453052</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>1972</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>225354</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>173174</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>398528</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>1973</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>238898</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>144548</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>383446</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>1974</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>238066</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>136704</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>374770</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>264975</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>106016</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>370991</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>1976</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>280831</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>67018</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>347849</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>1977</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>329676</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>10374</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>340050</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>319648</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>10742</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>330390</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>1979</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>360080</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>7984</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>368064</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>1980</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>428344</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>434344</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>460579</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>8080</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>468659</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>382297</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>6090</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>388387</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>293890</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>6166</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>300056</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>1984</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>281481</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>2341</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <v>283822</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>322810</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>2457</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>325267</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>365852</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>2781</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>368633</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>1987</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>389808</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>2445</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>392257</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>1988</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>375741</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>2335</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>378076</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <v>353630</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>2324</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>355954</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <v>333348</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>2042</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>335390</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <v>306689</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>1871</v>
-      </c>
-      <c r="D88" s="0" t="n">
-        <v>308560</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>266662</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>1105</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>267767</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>1993</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <v>251170</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>809</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>251979</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>1994</v>
-      </c>
-      <c r="B91" s="0" t="n">
-        <v>177919</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>890</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>178809</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B92" s="0" t="n">
-        <v>168685</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>739</v>
-      </c>
-      <c r="D92" s="0" t="n">
-        <v>169424</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>1996</v>
-      </c>
-      <c r="B93" s="0" t="n">
-        <v>181052</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>606</v>
-      </c>
-      <c r="D93" s="0" t="n">
-        <v>181658</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B94" s="0" t="n">
-        <v>202745</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>408</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>203153</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>241545</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>1087</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>242632</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B96" s="0" t="n">
-        <v>258658</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>1394</v>
-      </c>
-      <c r="D96" s="0" t="n">
-        <v>260052</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B97" s="0" t="n">
-        <v>234362</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>1325</v>
-      </c>
-      <c r="D97" s="0" t="n">
-        <v>235687</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B98" s="0" t="n">
-        <v>234085</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>1289</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>235374</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <v>207466</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>1311</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>208777</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B100" s="0" t="n">
-        <v>200443</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>7108</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>207551</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B101" s="0" t="n">
-        <v>220057</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>7532</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>227589</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B102" s="0" t="n">
-        <v>207972</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>5612</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>213584</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <v>193413</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>2863</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>196276</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>2007</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <v>166912</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>3710</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>170622</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>2008</v>
-      </c>
-      <c r="B105" s="0" t="n">
-        <v>143785</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>2794</v>
-      </c>
-      <c r="D105" s="0" t="n">
-        <v>146579</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B106" s="0" t="n">
-        <v>181309</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>1112</v>
-      </c>
-      <c r="D106" s="0" t="n">
-        <v>182421</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B107" s="0" t="n">
-        <v>167632</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>1521</v>
-      </c>
-      <c r="D107" s="0" t="n">
-        <v>169153</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B108" s="0" t="n">
-        <v>169638</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>2062</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>171700</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B109" s="0" t="n">
-        <v>193846</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>195826</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>221569</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>1705</v>
-      </c>
-      <c r="D110" s="0" t="n">
-        <v>223274</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B111" s="0" t="n">
-        <v>219682</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>1661</v>
-      </c>
-      <c r="D111" s="0" t="n">
-        <v>221343</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B112" s="0" t="n">
-        <v>228368</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>1863</v>
-      </c>
-      <c r="D112" s="0" t="n">
-        <v>230231</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B113" s="0" t="n">
-        <v>248393</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>2739</v>
-      </c>
-      <c r="D113" s="0" t="n">
-        <v>251132</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>